--- a/src/main/resources/output.xlsx
+++ b/src/main/resources/output.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yuvi\java\STS\OfferIssue\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89007FA-6EF9-4A83-99C0-FD44C4B7E14A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ABCD7878</t>
   </si>
@@ -27,6 +33,9 @@
     <t>3.0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>ABCDFGTRF89876*km</t>
   </si>
   <si>
@@ -37,12 +46,36 @@
   </si>
   <si>
     <t>9876543*&amp;*&amp;ERTY</t>
+  </si>
+  <si>
+    <t>ABCHJUH</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>909ikokujyhtgt*</t>
+  </si>
+  <si>
+    <t>JKJKUHY/////\\\\\%^%gyvb</t>
+  </si>
+  <si>
+    <t>jkjkhjhh)))))</t>
+  </si>
+  <si>
+    <t>(((hjnmnmnmm####</t>
+  </si>
+  <si>
+    <t>hjhj.uiuiuisdksd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -354,24 +387,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="s">
         <v>0</v>
@@ -382,16 +406,48 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
